--- a/biology/Zoologie/Borboropactus/Borboropactus.xlsx
+++ b/biology/Zoologie/Borboropactus/Borboropactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Borboropactus est un genre d'araignées aranéomorphes de la famille des Thomisidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Borboropactus est un genre d'araignées aranéomorphes de la famille des Thomisidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne, en Asie et en Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne, en Asie et en Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 04/02/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 04/02/2023) :
 Borboropactus asper (O. Pickard-Cambridge, 1884)
 Borboropactus australis (Lawrence, 1937)
 Borboropactus biprocessus Tang, Yin &amp; Peng, 2012
@@ -590,10 +606,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Simon en 1884 dans les Bradystichidae.
-Regillus O. Pickard-Cambridge, 1884[2], préoccupé par Regillus MacGillivray, 1839, remplacé par Regillulus[3] par Strand en 1942 a été placé en synonymie par Roewer en 1955[4].
+Regillus O. Pickard-Cambridge, 1884, préoccupé par Regillus MacGillivray, 1839, remplacé par Regillulus par Strand en 1942 a été placé en synonymie par Roewer en 1955.
 </t>
         </is>
       </c>
@@ -622,7 +640,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1884 : « Description d'une nouvelle famille de l'ordre des Araneae (Bradystichidae). » Annales de la Société entomologique de Belgique, vol. 28, p. 297-301 (texte intégral).</t>
         </is>
